--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6777675481.681176</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003997949854775986</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.0745726437340513</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.178626603239496</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.3161142305374217</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-5.178626603239496</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4637185586.421671</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00493078703382517</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.830348678639685</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.283063030516763</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-4.830348678639685</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6603925551.302448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002551994638272808</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.748673401587268</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9569363343767058</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.748673401587268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3945521714.649127</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005093797437461854</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8811503382699519</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.119307735869324</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.064930610134663</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-4.119307735869324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7874663674.944927</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002637168980336228</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9994920080656706</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.084149313102139</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.228434197676965</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-4.084149313102139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5779875201.816954</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001284678257788954</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.015215291744281</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6969083129.747766</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003038218466507733</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9936745817200811</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.764595898851388</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.279835922135525</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.764595898851388</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6054707676.100806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004310870625162314</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.659551173169278</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9028159023086157</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.659551173169278</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3907996617.559758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004669527187601775</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6.762407750575059</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9725853825896359</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-6.762407750575059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3307893224.123363</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009759011150553836</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>3.943680112660898</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.675554521341685</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-3.943680112660898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6382414353.152671</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001970148447647781</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.94827431719903</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.931247335533354</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.94827431719903</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5876596603.410597</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003652931414937539</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3752633493832843</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.966906451355446</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7079066321696411</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.966906451355446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9132756823.230738</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002517737077034511</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9747520776690967</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7198597378.193129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005060040954982044</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.056034368780766</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6938550301.814181</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005621908295726249</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9481986695410665</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.92501078469915</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.218220487789086</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-4.92501078469915</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6684657928.211534</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00250140795236606</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.77523800469137</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.8789823894847414</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.77523800469137</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7262769696.789027</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008261225752637932</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.743690670165098</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9356638874161618</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.743690670165098</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3782473977.79548</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001775896758536122</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.797612835973655</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9410270823274028</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-6.797612835973655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4393894362.211237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001421441842757004</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.728693932326328</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8320353526519966</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-6.728693932326328</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7332251602.340625</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005352643540037027</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.957334000400055</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8994651287214973</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-6.957334000400055</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4035920154.40933</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004021839318876307</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.895301308150632</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8499870625129738</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.895301308150632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8289318255.68667</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001609947347138176</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>4.791310641142699</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.856949715607913</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-4.791310641142699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5705633162.981194</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003233343491810405</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.062685123302595</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6486880223.468534</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002997659240142238</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.058889955631421</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.7972025901071976</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.058889955631421</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4139820882.019961</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001279269026371023</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.623145692259468</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8721956388238</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-6.623145692259468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7640060483.784799</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.004084352217165198</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.880060591793496</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8926176021822934</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-4.880060591793496</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7462645704.068187</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005409428195189568</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>4.882812229780029</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8557743880186546</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-4.882812229780029</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7387797366.210684</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001659732495662289</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.896731024972654</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9910381125259868</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-6.896731024972654</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8966829190.349558</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003374772058311023</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.726154265877268</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8498733692320298</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-4.726154265877268</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6981415753.577902</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.0024480253726853</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.071845124047088</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.8615228377344221</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.071845124047088</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4725334277.518273</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001219889380292367</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.03428554566222927</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.143094546055432</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.4286037180988327</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.143094546055432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7660535474.85078</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002175486381125316</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9260362119800364</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5299503129.887723</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003704357720258795</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8606906390655631</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6470513706.11445</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001985580637194887</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.785425799285708</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9484846086869757</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-6.785425799285708</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6407867786.425454</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002556712299711659</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2904448595479703</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.484011591043088</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.3756297712569681</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.484011591043088</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4328555837.037513</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004886538009510747</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.099002791201222</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3765323266.364805</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003700231407485586</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.9783507201131791</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.774187652487424</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.249480484112351</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.774187652487424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5288941912.289044</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002113151328934976</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9453979479300646</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6856653977.748829</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004931543897802803</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.981814435703094</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.004154218769314</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-6.981814435703094</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5493952242.183156</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.0009902649251992692</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.812491897771912</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9345875551937035</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-6.812491897771912</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5562138938.148636</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004765717860500206</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.75379207132876</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9355606060032091</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.75379207132876</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6364501609.349897</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00444442704669169</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6.911151487365077</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9420960575044376</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-6.911151487365077</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5556126093.733857</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002251372805892126</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.97616477188641</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9093741595747973</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.97616477188641</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6105141298.994374</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00164497834328352</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.074315478541874</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9746529383378417</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-7.074315478541874</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7165994912.256956</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003834744239305064</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9282074604752405</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6714748683.972566</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002742218927022388</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.987065223590408</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7377182896.559373</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002917530508522546</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.83952935577232</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9452957300447014</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.83952935577232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5020443478.663016</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004069260529641072</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.619524323631341</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.6813462380924119</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.619524323631341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6837718017.703588</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00270265180999015</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.864390880411477</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.000136814393457</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-6.864390880411477</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3624904865.275062</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005461637054175996</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.1297918909764242</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6.85927500017568</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.3755799974058352</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-6.85927500017568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5870938031.967842</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002203809726048494</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.724132413352621</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8767994525262759</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-6.724132413352621</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6963092481.241051</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002576529749076403</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.00725269592947</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5944053395.521902</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005688632576005193</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.77602885271697</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8172719392293722</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.77602885271697</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5685924296.819103</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002891656342159823</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.782591411537</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9399568914486687</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-6.782591411537</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4082230331.488412</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002923060125237621</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9773620121430113</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.827213710166095</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.296421385962221</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-6.827213710166095</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7155830297.083513</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.002841071859460891</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9260362119800364</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5120528053.410501</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002688229993208538</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.707899581098204</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.797323793940239</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-4.707899581098204</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>4956823496.993841</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002915992629309359</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4.818335236850775</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8463130083216621</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-4.818335236850775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3763885533.627822</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003058581196064478</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6.669579157726822</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8664064709617283</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-6.669579157726822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4949052314.25986</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005569979575592254</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734925</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.670413520188168</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8544843641561211</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.670413520188168</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3270,39 +2160,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6437163180.634803</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003077655728412919</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9674970437565997</v>
-      </c>
-      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>5762306457.821413</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003718815054244607</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.016206229307421</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3893387201.796446</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004201818694741025</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.750962672203134</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.907264350136409</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-6.750962672203134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6057276543.594581</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004280658030714772</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.087957256681859</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5680578166.130412</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00323540064815406</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9750660811610968</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4.03484952658491</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.191284357809084</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-4.03484952658491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6697866420.734451</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005129228014884952</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.879583411704544</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8904680918773781</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.879583411704544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5957611030.558825</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002069181735780835</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.722765076783126</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.6976835617896748</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.722765076783126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6576123101.532268</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008982180370527814</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4.928882860585295</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9104802985205935</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-4.928882860585295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6614658424.416019</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003861426159831726</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.608197362010047</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8983454268232235</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-7.608197362010047</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4873986055.782097</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003937814234618861</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7063059924237295</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.744609852333318</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.9552937986404557</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-6.744609852333318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6187695574.363018</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002306216681647997</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.12614274930911</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6851040810.545269</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001353381960454507</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6.772884205698543</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9632264631959648</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-6.772884205698543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5391842736.56657</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003395047712961697</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.9654141628825421</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6249429118.759998</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.004021533576691855</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>4.939117626772718</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8282816729094999</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-4.939117626772718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6489885164.118186</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002599901164535948</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6.880731027351938</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9600865501222622</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-6.880731027351938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5129958330.184542</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004478869529400045</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1136651207565224</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.831114933933143</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.3247249521257594</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.831114933933143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6226820281.720587</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004908226512580574</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.892670149943247</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8789823894847414</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.892670149943247</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5348437125.555863</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001728206069478846</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.01306095696002605</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.921706798300839</v>
-      </c>
-      <c r="M79" t="n">
-        <v>-0.591349931029266</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.921706798300839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6132696144.320032</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002436851221321784</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>5.153231659429374</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9387825537260651</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-5.153231659429374</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7300665182.782245</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004561123248263843</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.717679589839029</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9653140645326616</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.717679589839029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7986335672.655432</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004329812935418547</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.870614384068958</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9302697731066099</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-6.870614384068958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7727763976.723506</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002843018399605521</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.961234861169256</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5226217029.344375</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003906166254238708</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.764759106612806</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9900219838909087</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-6.764759106612806</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4486693264.060637</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002628334359855917</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>4.796608228654736</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8869617377693167</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-4.796608228654736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6799171348.054518</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002140311452075849</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.119636297327109</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9515612570306726</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.119636297327109</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4427182547.80235</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001255428765611824</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2481492490078918</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.983633003891097</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.411119219318661</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.983633003891097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7746675115.628304</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004508782350649328</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>4.789402209142738</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.797323793940239</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-4.789402209142738</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5545755484.095501</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005052830619983699</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.961534183872182</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.8971166207872795</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.961534183872182</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5198353557.215492</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003040171640560684</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.785454657371694</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.8948699388789564</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-4.785454657371694</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6066412471.362714</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004164036280657825</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.658779167767245</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8173901671548115</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.658779167767245</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4672662278.250433</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003689873952680857</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.929613457409431</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.9919557901747531</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.929613457409431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5647760693.387193</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00178088499637768</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>4.87328794125541</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-4.87328794125541</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5964908698.622554</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001075711276439524</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.072114634825238</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5211856497.829244</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002765848465802514</v>
       </c>
       <c r="G95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.72551075990664</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9302697731066099</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-6.72551075990664</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9922949275.349037</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002591104243557799</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.06448881376572023</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6.842344820979358</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.06174264657203046</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-6.842344820979358</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5905487963.344643</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005744590284476875</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9788736693196631</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8820611149.067596</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004919041172570897</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
         <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.815244525814676</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.7299783306323812</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.815244525814676</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3410987867.037554</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005858990723412039</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.004250445746401</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6011259299.609541</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003067019488380227</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5371568198259236</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.930359538416674</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.682963374394333</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.930359538416674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5214660823.8082</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001106021169084795</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9398135632865606</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.283240524762698</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.156149883811451</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.283240524762698</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6777675481.681176</v>
+        <v>1791687078.237696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003997949854775986</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+        <v>0.1080829980747442</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03877078085495262</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>895843506.0256695</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4637185586.421671</v>
+        <v>1933447012.07967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00493078703382517</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
+        <v>0.1834341142211687</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04977696722260445</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>966723535.3772759</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6603925551.302448</v>
+        <v>3887881233.770186</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002551994638272808</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
+        <v>0.1411770600716515</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03043084140723646</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1943940622.620813</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3945521714.649127</v>
+        <v>3148035950.262153</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005093797437461854</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1077373177972368</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04855767403873119</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1574018034.709419</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2090731257.776793</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09199083387640693</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05027417733125906</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>469</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7874663674.944927</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002637168980336228</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+      <c r="J6" t="n">
+        <v>1045365648.230815</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5779875201.816954</v>
+        <v>2032954155.822337</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001284678257788954</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>0.06194057942144306</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03023837502927829</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1016477135.60406</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6969083129.747766</v>
+        <v>3601137934.391385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003038218466507733</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
+        <v>0.1487460677886151</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02765642970346684</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1800569085.712858</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6054707676.100806</v>
+        <v>2152047822.019862</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004310870625162314</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+        <v>0.1861107333283532</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0313740589395697</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1076023916.074184</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3907996617.559758</v>
+        <v>5172556924.299982</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004669527187601775</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1367084301624738</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03848120152913734</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2586278574.365687</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3307893224.123363</v>
+        <v>4128009521.506006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009759011150553836</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1520238259991065</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03751992860063851</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2064004781.843104</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6382414353.152671</v>
+        <v>2613423631.174923</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001970148447647781</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
+        <v>0.1931120783108672</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04187856888477898</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1306711797.698367</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5876596603.410597</v>
+        <v>3527021050.498008</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003652931414937539</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.06388116448234191</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0197628915712847</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1763510603.681585</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9132756823.230738</v>
+        <v>3839350567.979986</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002517737077034511</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+        <v>0.1686315130179599</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02958077333961856</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1919675256.886375</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7198597378.193129</v>
+        <v>1537401365.986955</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005060040954982044</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
+        <v>0.08083867236130167</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03705039809866946</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>768700776.519012</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6938550301.814181</v>
+        <v>1807946625.894887</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005621908295726249</v>
-      </c>
-      <c r="G16" t="b">
+        <v>0.09775604529466346</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03907155923470675</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
+      <c r="J16" t="n">
+        <v>903973405.2714902</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6684657928.211534</v>
+        <v>4412378409.781825</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00250140795236606</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>0.1651749952042081</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0407363948857118</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2206189218.621848</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7262769696.789027</v>
+        <v>3131321995.399444</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008261225752637932</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.1196753435014595</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02940523171555777</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1565661017.977332</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3782473977.79548</v>
+        <v>1041966810.284391</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001775896758536122</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1784659790426016</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02207170271839243</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>520983444.1382313</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4393894362.211237</v>
+        <v>2440091113.277445</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001421441842757004</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1478975416041016</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02866453254669086</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1220045535.635631</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7332251602.340625</v>
+        <v>2627490076.241984</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005352643540037027</v>
-      </c>
-      <c r="G21" t="b">
+        <v>0.1025835302108088</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02992206799692488</v>
+      </c>
+      <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1313745013.524768</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4035920154.40933</v>
+        <v>2471378904.527213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004021839318876307</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+        <v>0.08836412411502527</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04969520905453069</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1235689544.981504</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8289318255.68667</v>
+        <v>1079450234.001437</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001609947347138176</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
+        <v>0.1572094686787453</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03688749250794639</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>539725173.0687156</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5705633162.981194</v>
+        <v>3721387148.529199</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003233343491810405</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
+        <v>0.09311863269263683</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03269343517697481</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1860693560.456195</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6486880223.468534</v>
+        <v>1010934521.356696</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002997659240142238</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.1193499624177762</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02897908642177967</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>505467321.7909879</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4139820882.019961</v>
+        <v>1172535750.886235</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001279269026371023</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09011359803078045</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02443062430814316</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>586267889.2434422</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7640060483.784799</v>
+        <v>3389904013.236609</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004084352217165198</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
+        <v>0.1375773496533254</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02007309834923849</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1694952046.669455</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3747509707.674662</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1166628953889402</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04313652817389921</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7462645704.068187</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.005409428195189568</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1873754929.448998</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7387797366.210684</v>
+        <v>3675469297.128987</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001659732495662289</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
+        <v>0.1078151862921493</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0463572406666654</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1837734687.601287</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8966829190.349558</v>
+        <v>1497450690.037698</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003374772058311023</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
+        <v>0.1393995985584837</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02602382522324614</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>748725324.9605981</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6981415753.577902</v>
+        <v>913056715.5875405</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0024480253726853</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
+        <v>0.09359584493865579</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04765957484227391</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>456528376.3754089</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4725334277.518273</v>
+        <v>1753315287.285239</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001219889380292367</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.08179230119291783</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03683549471164779</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>876657763.6301332</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7660535474.85078</v>
+        <v>1965223183.59089</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002175486381125316</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
+        <v>0.1302003127235681</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05660354952404635</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>982611674.9273939</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5299503129.887723</v>
+        <v>1209984170.259977</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003704357720258795</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
+        <v>0.1122039157706312</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02116071178778203</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>604992088.0836298</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6470513706.11445</v>
+        <v>1240966767.866653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001985580637194887</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
+        <v>0.1123326664449781</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03938383982884429</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>620483349.0493129</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6407867786.425454</v>
+        <v>2392920741.293891</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002556712299711659</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
+        <v>0.176529332705339</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02888731820050663</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1196460400.700329</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4328555837.037513</v>
+        <v>2679173195.205593</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004886538009510747</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
+        <v>0.1079935858049629</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03324020625075862</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1339586717.824453</v>
       </c>
     </row>
     <row r="38">
@@ -1491,19 +1717,25 @@
         <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3765323266.364805</v>
+        <v>1698297520.764999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003700231407485586</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08348459912686845</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03612267013972061</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>849148781.1689146</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5288941912.289044</v>
+        <v>1797334695.445569</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002113151328934976</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.177258025101599</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02157855970636736</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>898667372.5653681</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6856653977.748829</v>
+        <v>1791728823.531427</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004931543897802803</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
+        <v>0.1232308297979036</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04729643005146737</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>895864304.3493899</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5493952242.183156</v>
+        <v>1921686067.707026</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0009902649251992692</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1151407973070251</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04123732273114628</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>960843115.0537578</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5562138938.148636</v>
+        <v>3673471831.705795</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004765717860500206</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
+        <v>0.07926829161763367</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03997747913077031</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1836735922.171837</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6364501609.349897</v>
+        <v>2429930167.48468</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00444442704669169</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
+        <v>0.1739403314695069</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02183796704829401</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1214965138.931614</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5556126093.733857</v>
+        <v>1591230529.808115</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002251372805892126</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
+        <v>0.09865886388688641</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0320895304863874</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>795615289.2781907</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6105141298.994374</v>
+        <v>1844186041.890137</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00164497834328352</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
+        <v>0.1536885036729395</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04906150085408215</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>922092995.5106144</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7165994912.256956</v>
+        <v>4460428625.453481</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003834744239305064</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
+        <v>0.1568062580187647</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0373431470766726</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2230214308.169292</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6714748683.972566</v>
+        <v>3306630207.272473</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002742218927022388</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
+        <v>0.1687521149628402</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05511999870677006</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1653315063.023782</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7377182896.559373</v>
+        <v>3169756420.690971</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002917530508522546</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
+        <v>0.08771819496293234</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03007197602538154</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1584878292.497621</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5020443478.663016</v>
+        <v>1603363193.08586</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004069260529641072</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1437288571617965</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03430839128288262</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>801681611.974834</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6837718017.703588</v>
+        <v>2861016315.760683</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00270265180999015</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
+        <v>0.1495951045430653</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03784463773441728</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1430508227.196205</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3624904865.275062</v>
+        <v>1243867390.189174</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005461637054175996</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1843353972182193</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04454475453756526</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>621933739.0490707</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5870938031.967842</v>
+        <v>3602097988.712675</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002203809726048494</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
+        <v>0.1200564453558572</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04929209791909001</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1801049073.767869</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6963092481.241051</v>
+        <v>3199350573.85909</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002576529749076403</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
+        <v>0.1787966504839317</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02344571732859973</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1599675305.098878</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5944053395.521902</v>
+        <v>3008519542.089935</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005688632576005193</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
+        <v>0.1654341956623232</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.05220668870708523</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1504259756.991122</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5685924296.819103</v>
+        <v>4202260903.463068</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002891656342159823</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
+        <v>0.1378897645233661</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0257828665485205</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2101130435.13113</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4082230331.488412</v>
+        <v>1829567154.004125</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002923060125237621</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.140755806089599</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04346115243030698</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>914783569.9475888</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7155830297.083513</v>
+        <v>3892274955.610514</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002841071859460891</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
+        <v>0.1112090220967429</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02371715326890661</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1946137556.68322</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5120528053.410501</v>
+        <v>1912496782.314871</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002688229993208538</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
+        <v>0.1655297147538958</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03562394724511314</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>956248384.2958469</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4956823496.993841</v>
+        <v>4525551747.118932</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002915992629309359</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
+        <v>0.09960793953110895</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04654109040040382</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2262775823.723156</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3763885533.627822</v>
+        <v>2581326206.320983</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003058581196064478</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1674878781840734</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0264943427950874</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1290663129.201349</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4949052314.25986</v>
+        <v>2052637941.454443</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005569979575592254</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
+        <v>0.1130887474736802</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02350659042114868</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1026319040.223042</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6437163180.634803</v>
+        <v>1875843117.949695</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003077655728412919</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+        <v>0.1271985852287603</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04756030189335742</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>937921597.9732033</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5762306457.821413</v>
+        <v>3477538701.85568</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003718815054244607</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
+        <v>0.09610685345149594</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03757342955891597</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1738769435.131445</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3893387201.796446</v>
+        <v>4868693485.778354</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004201818694741025</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1168936136115817</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02532276167480473</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2434346839.423186</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6057276543.594581</v>
+        <v>5282883637.673605</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004280658030714772</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+        <v>0.1582431447909477</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0238154894865057</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2641441760.295881</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5680578166.130412</v>
+        <v>4103536358.628963</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00323540064815406</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1493917974295037</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.044628962924827</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2051768157.493814</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6697866420.734451</v>
+        <v>2553829204.181039</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005129228014884952</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
+        <v>0.08534253538992152</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04529772315832581</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1276914657.704681</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5957611030.558825</v>
+        <v>5324170134.036535</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002069181735780835</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
+        <v>0.1103511212498383</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03717565038216434</v>
+      </c>
+      <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2662085142.528145</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6576123101.532268</v>
+        <v>2074035204.549146</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008982180370527814</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
+        <v>0.1111725784924434</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04505881041081261</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1037017616.301978</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6614658424.416019</v>
+        <v>3680465226.413385</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003861426159831726</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
+        <v>0.06870451582805086</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04406761539010266</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1840232633.972665</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4873986055.782097</v>
+        <v>5303293191.941023</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003937814234618861</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.112860441661053</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03127905581759093</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2651646723.519395</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6187695574.363018</v>
+        <v>1757090488.922862</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002306216681647997</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
+        <v>0.07081665036894852</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03750003951813595</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>878545229.5349692</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6851040810.545269</v>
+        <v>2820088243.060666</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001353381960454507</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
+        <v>0.07863571079479978</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04832253062662544</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1410044133.547833</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5391842736.56657</v>
+        <v>2795059335.902074</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003395047712961697</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
+        <v>0.1591729699700263</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03518934647609138</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1397529750.415645</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6249429118.759998</v>
+        <v>1826764651.573061</v>
       </c>
       <c r="F75" t="n">
-        <v>0.004021533576691855</v>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
+        <v>0.131880167551459</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02562965711583029</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>913382305.7188625</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6489885164.118186</v>
+        <v>4405057260.308796</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002599901164535948</v>
-      </c>
-      <c r="G76" t="b">
+        <v>0.1083534313623266</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02159424789594935</v>
+      </c>
+      <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2202528631.40116</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5129958330.184542</v>
+        <v>1661781472.755533</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004478869529400045</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.1433247894661142</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02784021893189921</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>830890747.5304221</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6226820281.720587</v>
+        <v>3722111753.347844</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004908226512580574</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
+        <v>0.114214458038538</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05044802001746854</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1861055861.812227</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5348437125.555863</v>
+        <v>1503697983.874831</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001728206069478846</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
+        <v>0.1454116051195773</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03903673992056007</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>751849026.3009602</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6132696144.320032</v>
+        <v>3642185525.238482</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002436851221321784</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
+        <v>0.07904622735450811</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0302547139268509</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1821092743.962686</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7300665182.782245</v>
+        <v>3135099232.624796</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004561123248263843</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
+        <v>0.09694391521982371</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02659521757064979</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1567549546.501604</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7986335672.655432</v>
+        <v>4047190529.090583</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004329812935418547</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
+        <v>0.2060184822295576</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01965764607741683</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2023595301.115835</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7727763976.723506</v>
+        <v>2225158588.118695</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002843018399605521</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.1192552188532531</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04281903358150083</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1112579306.979479</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5226217029.344375</v>
+        <v>1816034500.517771</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003906166254238708</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.09350044332467107</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04809426872401653</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>908017281.7526077</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4486693264.060637</v>
+        <v>3079885429.960537</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002628334359855917</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1648468814867344</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03717170496902203</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1539942783.514517</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6799171348.054518</v>
+        <v>1996189767.670568</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002140311452075849</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
+        <v>0.1301286370284423</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02327269801748739</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>998094910.4722133</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4427182547.80235</v>
+        <v>1172367456.267618</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001255428765611824</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.185186033352834</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02822973287488285</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>586183776.1869519</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7746675115.628304</v>
+        <v>3499873353.018919</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004508782350649328</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
+        <v>0.1540855850202941</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03984385803671234</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1749936755.85743</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5545755484.095501</v>
+        <v>2480094435.170321</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005052830619983699</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.1260803739671971</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02850660249837015</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1240047293.354019</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5198353557.215492</v>
+        <v>1876473308.144588</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003040171640560684</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.1025665722371793</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04477233160250476</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>938236701.198652</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6066412471.362714</v>
+        <v>1781391095.534022</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004164036280657825</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
+        <v>0.1844463030511435</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0447871235548941</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>890695548.7174475</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>515</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1983351062.338624</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.07294032908756193</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04119356336353148</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="D92" t="n">
-        <v>534</v>
-      </c>
-      <c r="E92" t="n">
-        <v>4672662278.250433</v>
-      </c>
-      <c r="F92" t="n">
-        <v>0.003689873952680857</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+      <c r="J92" t="n">
+        <v>991675475.6811668</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5647760693.387193</v>
+        <v>3674669948.596978</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00178088499637768</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3</v>
+        <v>0.1137996779165088</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0468925153961811</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1837334995.477697</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5964908698.622554</v>
+        <v>2447767558.007363</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001075711276439524</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
+        <v>0.1040453817950889</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03110626878902664</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1223883835.219393</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5211856497.829244</v>
+        <v>2405157928.858589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002765848465802514</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
+        <v>0.1089188228774994</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03506102255495866</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1202579006.974355</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9922949275.349037</v>
+        <v>2232117239.850928</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002591104243557799</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
+        <v>0.1235797153751347</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0378756910080173</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1116058581.698072</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3512034072.943839</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1125981204484683</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02088159241391127</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>5905487963.344643</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.005744590284476875</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1756017053.247539</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8820611149.067596</v>
+        <v>3271387641.903354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004919041172570897</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>3</v>
+        <v>0.097342475031297</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02213959170980791</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1635693823.585855</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3410987867.037554</v>
+        <v>2174263352.689137</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005858990723412039</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1413156984890074</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03248056339328079</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1087131601.755441</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6011259299.609541</v>
+        <v>4393886193.520547</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003067019488380227</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1257072319032313</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02537213153823051</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2196943198.28303</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5214660823.8082</v>
+        <v>3109581128.725064</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001106021169084795</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
+        <v>0.145356441102993</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04500920062176346</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1554790667.42045</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1791687078.237696</v>
+        <v>1658011517.555507</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1080829980747442</v>
+        <v>0.07249921874154747</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03877078085495262</v>
+        <v>0.04518294276032484</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>895843506.0256695</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1933447012.07967</v>
+        <v>2297367728.878142</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1834341142211687</v>
+        <v>0.1146087365072009</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04977696722260445</v>
+        <v>0.04380271450257014</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>966723535.3772759</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3887881233.770186</v>
+        <v>4459577711.372493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1411770600716515</v>
+        <v>0.1156900390978753</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03043084140723646</v>
+        <v>0.02522844341435091</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1943940622.620813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3148035950.262153</v>
+        <v>3788004382.346953</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1077373177972368</v>
+        <v>0.08425828163514475</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04855767403873119</v>
+        <v>0.04360939584227504</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1574018034.709419</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2090731257.776793</v>
+        <v>2506072601.257629</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09199083387640693</v>
+        <v>0.12172157126655</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05027417733125906</v>
+        <v>0.03600103995605759</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1045365648.230815</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2032954155.822337</v>
+        <v>2379375714.308132</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06194057942144306</v>
+        <v>0.09622240206446787</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03023837502927829</v>
+        <v>0.04456357468541746</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1016477135.60406</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3601137934.391385</v>
+        <v>2817239678.962362</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1487460677886151</v>
+        <v>0.2043092869033012</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02765642970346684</v>
+        <v>0.02659935069438686</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1800569085.712858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2152047822.019862</v>
+        <v>1393149809.10478</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1861107333283532</v>
+        <v>0.1748945384486192</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0313740589395697</v>
+        <v>0.03677832271626921</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1076023916.074184</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5172556924.299982</v>
+        <v>5666305899.918061</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1367084301624738</v>
+        <v>0.1920654763468825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03848120152913734</v>
+        <v>0.03343945108548323</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2586278574.365687</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4128009521.506006</v>
+        <v>4216708563.460377</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1520238259991065</v>
+        <v>0.1267507693741313</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03751992860063851</v>
+        <v>0.04511870918577426</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2064004781.843104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2613423631.174923</v>
+        <v>2588982539.818868</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1931120783108672</v>
+        <v>0.1231082478034157</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04187856888477898</v>
+        <v>0.03443926026405292</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1306711797.698367</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3527021050.498008</v>
+        <v>4774683384.225391</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06388116448234191</v>
+        <v>0.0976748514204997</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0197628915712847</v>
+        <v>0.03129304036807909</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1763510603.681585</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3839350567.979986</v>
+        <v>3097390920.457004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1686315130179599</v>
+        <v>0.1364276526070209</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02958077333961856</v>
+        <v>0.0424623958345458</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1919675256.886375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1537401365.986955</v>
+        <v>1423199559.796774</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08083867236130167</v>
+        <v>0.08536187033061052</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03705039809866946</v>
+        <v>0.04186904418521045</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>768700776.519012</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1807946625.894887</v>
+        <v>2715237547.214755</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09775604529466346</v>
+        <v>0.08920919148145</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03907155923470675</v>
+        <v>0.03259237018310951</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>903973405.2714902</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4412378409.781825</v>
+        <v>5100358346.337936</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1651749952042081</v>
+        <v>0.123390026618469</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0407363948857118</v>
+        <v>0.0486886169867577</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2206189218.621848</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3131321995.399444</v>
+        <v>2797895624.237437</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1196753435014595</v>
+        <v>0.1704868662400365</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02940523171555777</v>
+        <v>0.02536070909843756</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1565661017.977332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1041966810.284391</v>
+        <v>1179323845.233273</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1784659790426016</v>
+        <v>0.1564132516313796</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02207170271839243</v>
+        <v>0.02505750578315219</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>520983444.1382313</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2440091113.277445</v>
+        <v>2011568960.91518</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1478975416041016</v>
+        <v>0.1025731354837933</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02866453254669086</v>
+        <v>0.021932309960408</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1220045535.635631</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2627490076.241984</v>
+        <v>2410083520.311935</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1025835302108088</v>
+        <v>0.08743651320283832</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02992206799692488</v>
+        <v>0.04596052731288032</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1313745013.524768</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2471378904.527213</v>
+        <v>3618758297.998795</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08836412411502527</v>
+        <v>0.1035813683247352</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04969520905453069</v>
+        <v>0.04373000556974532</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1235689544.981504</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1079450234.001437</v>
+        <v>1319506724.755914</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1572094686787453</v>
+        <v>0.1419931664468004</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03688749250794639</v>
+        <v>0.04026263728966382</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>539725173.0687156</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3721387148.529199</v>
+        <v>3761703327.689762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09311863269263683</v>
+        <v>0.1033589179232563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03269343517697481</v>
+        <v>0.03194006738638911</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1860693560.456195</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010934521.356696</v>
+        <v>969476632.1768067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1193499624177762</v>
+        <v>0.1034064888206841</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02897908642177967</v>
+        <v>0.03044717857879734</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505467321.7909879</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1172535750.886235</v>
+        <v>1072400662.245142</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09011359803078045</v>
+        <v>0.09797680038463458</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02443062430814316</v>
+        <v>0.03288238512331192</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>586267889.2434422</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3389904013.236609</v>
+        <v>4424533410.253066</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1375773496533254</v>
+        <v>0.09919452280695019</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02007309834923849</v>
+        <v>0.02703806996961753</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1694952046.669455</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3747509707.674662</v>
+        <v>2761937173.27456</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1166628953889402</v>
+        <v>0.1035798662196794</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04313652817389921</v>
+        <v>0.03057602978896055</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1873754929.448998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3675469297.128987</v>
+        <v>4079277776.823419</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1078151862921493</v>
+        <v>0.09134792529444653</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0463572406666654</v>
+        <v>0.04671712417987197</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1837734687.601287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1497450690.037698</v>
+        <v>1504898016.538723</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1393995985584837</v>
+        <v>0.08837226683901696</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02602382522324614</v>
+        <v>0.03575467384666192</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>748725324.9605981</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>913056715.5875405</v>
+        <v>1354342037.086485</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09359584493865579</v>
+        <v>0.07105692793378171</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04765957484227391</v>
+        <v>0.03433033725536754</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>456528376.3754089</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1753315287.285239</v>
+        <v>1666261218.214888</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08179230119291783</v>
+        <v>0.1137929493571</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03683549471164779</v>
+        <v>0.03416156853385397</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>876657763.6301332</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1965223183.59089</v>
+        <v>2496553021.974865</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1302003127235681</v>
+        <v>0.1987685950798435</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05660354952404635</v>
+        <v>0.05091124009632324</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>982611674.9273939</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1209984170.259977</v>
+        <v>1046970927.009222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1122039157706312</v>
+        <v>0.1101522992192387</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02116071178778203</v>
+        <v>0.02522118269978067</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>604992088.0836298</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1240966767.866653</v>
+        <v>950521706.6362573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1123326664449781</v>
+        <v>0.08326614465959237</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03938383982884429</v>
+        <v>0.02849732460158668</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>620483349.0493129</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2392920741.293891</v>
+        <v>2975644559.027162</v>
       </c>
       <c r="F36" t="n">
-        <v>0.176529332705339</v>
+        <v>0.1157835807680953</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02888731820050663</v>
+        <v>0.02444087993122875</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1196460400.700329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2679173195.205593</v>
+        <v>2861364229.116142</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1079935858049629</v>
+        <v>0.08183074485989922</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03324020625075862</v>
+        <v>0.02756939081222908</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1339586717.824453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1698297520.764999</v>
+        <v>1784893225.210197</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08348459912686845</v>
+        <v>0.118888459589161</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03612267013972061</v>
+        <v>0.02416721610790441</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>849148781.1689146</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1797334695.445569</v>
+        <v>2077383709.034619</v>
       </c>
       <c r="F39" t="n">
-        <v>0.177258025101599</v>
+        <v>0.1411899382045228</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02157855970636736</v>
+        <v>0.02933468832448141</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>898667372.5653681</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1791728823.531427</v>
+        <v>1319175292.477011</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1232308297979036</v>
+        <v>0.1103221053836039</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04729643005146737</v>
+        <v>0.03851314805829482</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>895864304.3493899</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1921686067.707026</v>
+        <v>2249973884.428747</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1151407973070251</v>
+        <v>0.1469489691575587</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04123732273114628</v>
+        <v>0.03886322109707176</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>960843115.0537578</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3673471831.705795</v>
+        <v>3889008387.664289</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07926829161763367</v>
+        <v>0.07744115925499555</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03997747913077031</v>
+        <v>0.03162414288819409</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1836735922.171837</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2429930167.48468</v>
+        <v>2488444452.321813</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1739403314695069</v>
+        <v>0.1899895292678257</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02183796704829401</v>
+        <v>0.02501688216458853</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1214965138.931614</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1591230529.808115</v>
+        <v>2217384344.648125</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09865886388688641</v>
+        <v>0.09819646730892953</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0320895304863874</v>
+        <v>0.03432832311965982</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>795615289.2781907</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1844186041.890137</v>
+        <v>1700179124.882313</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1536885036729395</v>
+        <v>0.1695296702084028</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04906150085408215</v>
+        <v>0.03954704905375793</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>922092995.5106144</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4460428625.453481</v>
+        <v>5081560175.978388</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1568062580187647</v>
+        <v>0.1552911503468706</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0373431470766726</v>
+        <v>0.04173273510713736</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2230214308.169292</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3306630207.272473</v>
+        <v>3607530433.311411</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1687521149628402</v>
+        <v>0.1741762961343519</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05511999870677006</v>
+        <v>0.05142197150081625</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1653315063.023782</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3169756420.690971</v>
+        <v>4149676516.980381</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08771819496293234</v>
+        <v>0.1045479989143152</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03007197602538154</v>
+        <v>0.03648124596842539</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1584878292.497621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1603363193.08586</v>
+        <v>1706916863.785131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1437288571617965</v>
+        <v>0.1449401978397252</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03430839128288262</v>
+        <v>0.02698622602502031</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>801681611.974834</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2861016315.760683</v>
+        <v>2948180958.931525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1495951045430653</v>
+        <v>0.1182634942284847</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03784463773441728</v>
+        <v>0.03673327461198068</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1430508227.196205</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1243867390.189174</v>
+        <v>1055265193.582453</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1843353972182193</v>
+        <v>0.1257562963297043</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04454475453756526</v>
+        <v>0.05002400912419515</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>621933739.0490707</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3602097988.712675</v>
+        <v>5098399739.805621</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1200564453558572</v>
+        <v>0.1157838695205989</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04929209791909001</v>
+        <v>0.06199587814281727</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1801049073.767869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3199350573.85909</v>
+        <v>3574769017.629605</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1787966504839317</v>
+        <v>0.1936943107307891</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02344571732859973</v>
+        <v>0.02369285192396504</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1599675305.098878</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3008519542.089935</v>
+        <v>3501985382.808077</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1654341956623232</v>
+        <v>0.1174489407763134</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05220668870708523</v>
+        <v>0.04873713157697125</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1504259756.991122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4202260903.463068</v>
+        <v>4770948610.053318</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1378897645233661</v>
+        <v>0.1426792375934894</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0257828665485205</v>
+        <v>0.02762434114926713</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2101130435.13113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1829567154.004125</v>
+        <v>1744119458.439116</v>
       </c>
       <c r="F56" t="n">
-        <v>0.140755806089599</v>
+        <v>0.1585198846786053</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04346115243030698</v>
+        <v>0.05256994480867973</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>914783569.9475888</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3892274955.610514</v>
+        <v>4139206779.828952</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1112090220967429</v>
+        <v>0.1278762874668844</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02371715326890661</v>
+        <v>0.02614690174340934</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1946137556.68322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1912496782.314871</v>
+        <v>1842867185.766235</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1655297147538958</v>
+        <v>0.1406409233206314</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03562394724511314</v>
+        <v>0.03678953538718294</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>956248384.2958469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4525551747.118932</v>
+        <v>3824176169.644</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09960793953110895</v>
+        <v>0.1137239693102045</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04654109040040382</v>
+        <v>0.04832925717011159</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2262775823.723156</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2581326206.320983</v>
+        <v>2710783757.923842</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1674878781840734</v>
+        <v>0.1659433555531289</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0264943427950874</v>
+        <v>0.02429837633978253</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1290663129.201349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2052637941.454443</v>
+        <v>3105176162.3347</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1130887474736802</v>
+        <v>0.1681746460845484</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02350659042114868</v>
+        <v>0.02317753425241151</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1026319040.223042</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1875843117.949695</v>
+        <v>1543805763.559444</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1271985852287603</v>
+        <v>0.1594463897820517</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04756030189335742</v>
+        <v>0.03881225955890745</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>937921597.9732033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3477538701.85568</v>
+        <v>5493519076.093801</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09610685345149594</v>
+        <v>0.09537280214623511</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03757342955891597</v>
+        <v>0.03866303742066012</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1738769435.131445</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4868693485.778354</v>
+        <v>4372474695.750203</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1168936136115817</v>
+        <v>0.1377794456419459</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02532276167480473</v>
+        <v>0.03211323528255697</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2434346839.423186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5282883637.673605</v>
+        <v>5768186319.824533</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1582431447909477</v>
+        <v>0.1463947758645687</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0238154894865057</v>
+        <v>0.0312773218046631</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2641441760.295881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4103536358.628963</v>
+        <v>3765146823.842681</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1493917974295037</v>
+        <v>0.09928541031126502</v>
       </c>
       <c r="G66" t="n">
-        <v>0.044628962924827</v>
+        <v>0.03162160971249062</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2051768157.493814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2553829204.181039</v>
+        <v>2389839407.224144</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08534253538992152</v>
+        <v>0.07718326781439659</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04529772315832581</v>
+        <v>0.04773540073853363</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1276914657.704681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5324170134.036535</v>
+        <v>5433268021.703317</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1103511212498383</v>
+        <v>0.1267609741284748</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03717565038216434</v>
+        <v>0.05149171850972548</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2662085142.528145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2074035204.549146</v>
+        <v>2190167455.306563</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1111725784924434</v>
+        <v>0.1339928813098997</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04505881041081261</v>
+        <v>0.04318416145617399</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1037017616.301978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3680465226.413385</v>
+        <v>2510529230.052943</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06870451582805086</v>
+        <v>0.06788889546874638</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04406761539010266</v>
+        <v>0.04074633373675034</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1840232633.972665</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5303293191.941023</v>
+        <v>5063430323.450417</v>
       </c>
       <c r="F71" t="n">
-        <v>0.112860441661053</v>
+        <v>0.1298825108258956</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03127905581759093</v>
+        <v>0.03213461893557746</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2651646723.519395</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1757090488.922862</v>
+        <v>1658144110.955123</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07081665036894852</v>
+        <v>0.1022541190389653</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03750003951813595</v>
+        <v>0.05044706737713474</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>878545229.5349692</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2820088243.060666</v>
+        <v>3201359854.508273</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07863571079479978</v>
+        <v>0.0849097408079169</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04832253062662544</v>
+        <v>0.03739489111551078</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1410044133.547833</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2795059335.902074</v>
+        <v>3002665254.055443</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1591729699700263</v>
+        <v>0.1565962881198773</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03518934647609138</v>
+        <v>0.02560336889363557</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1397529750.415645</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1826764651.573061</v>
+        <v>1922589830.716297</v>
       </c>
       <c r="F75" t="n">
-        <v>0.131880167551459</v>
+        <v>0.1047027083393362</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02562965711583029</v>
+        <v>0.03022414549055533</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>913382305.7188625</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4405057260.308796</v>
+        <v>4642405815.635947</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1083534313623266</v>
+        <v>0.08046932098984415</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02159424789594935</v>
+        <v>0.02771941279165041</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2202528631.40116</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1661781472.755533</v>
+        <v>2187498837.510403</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1433247894661142</v>
+        <v>0.1500781939409539</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02784021893189921</v>
+        <v>0.03121571445286413</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>830890747.5304221</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3722111753.347844</v>
+        <v>3874390962.406352</v>
       </c>
       <c r="F78" t="n">
-        <v>0.114214458038538</v>
+        <v>0.1210387739056391</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05044802001746854</v>
+        <v>0.04390889163626337</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1861055861.812227</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1503697983.874831</v>
+        <v>1214980957.951622</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1454116051195773</v>
+        <v>0.1225665259773947</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03903673992056007</v>
+        <v>0.03235160715642915</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>751849026.3009602</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3642185525.238482</v>
+        <v>3513136886.228254</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07904622735450811</v>
+        <v>0.07931199680605852</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0302547139268509</v>
+        <v>0.03858584352126296</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1821092743.962686</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3135099232.624796</v>
+        <v>3363658648.254067</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09694391521982371</v>
+        <v>0.09438591903634133</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02659521757064979</v>
+        <v>0.02405541855873431</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1567549546.501604</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4047190529.090583</v>
+        <v>4224956506.541498</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2060184822295576</v>
+        <v>0.1798620936511231</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01965764607741683</v>
+        <v>0.02502492425152212</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2023595301.115835</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2225158588.118695</v>
+        <v>2340014810.291313</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1192552188532531</v>
+        <v>0.1475733649926752</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04281903358150083</v>
+        <v>0.03392663804257084</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1112579306.979479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1816034500.517771</v>
+        <v>1693789259.210188</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09350044332467107</v>
+        <v>0.09933458672856826</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04809426872401653</v>
+        <v>0.05194972239522595</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>908017281.7526077</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3079885429.960537</v>
+        <v>2353964673.592599</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1648468814867344</v>
+        <v>0.167640854587182</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03717170496902203</v>
+        <v>0.04426117039331157</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1539942783.514517</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1996189767.670568</v>
+        <v>1695015424.788713</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1301286370284423</v>
+        <v>0.1594597525604754</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02327269801748739</v>
+        <v>0.01990822367991594</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>998094910.4722133</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1172367456.267618</v>
+        <v>1272173160.435981</v>
       </c>
       <c r="F87" t="n">
-        <v>0.185186033352834</v>
+        <v>0.1845160911969571</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02822973287488285</v>
+        <v>0.03469696008844637</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>586183776.1869519</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3499873353.018919</v>
+        <v>2888996847.278062</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1540855850202941</v>
+        <v>0.1114435978112834</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03984385803671234</v>
+        <v>0.03237206437249215</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1749936755.85743</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2480094435.170321</v>
+        <v>3256549391.579411</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1260803739671971</v>
+        <v>0.1378114703360778</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02850660249837015</v>
+        <v>0.03869149593767936</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1240047293.354019</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1876473308.144588</v>
+        <v>1582358963.235462</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1025665722371793</v>
+        <v>0.1209528355568492</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04477233160250476</v>
+        <v>0.04766809057765685</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>938236701.198652</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1781391095.534022</v>
+        <v>1631937829.166383</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1844463030511435</v>
+        <v>0.1907049867289079</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0447871235548941</v>
+        <v>0.04761283899278201</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>890695548.7174475</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1983351062.338624</v>
+        <v>1809999219.926597</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07294032908756193</v>
+        <v>0.06768688025963202</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04119356336353148</v>
+        <v>0.03976631011278021</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>991675475.6811668</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3674669948.596978</v>
+        <v>4705765684.098958</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1137996779165088</v>
+        <v>0.1055167851466892</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0468925153961811</v>
+        <v>0.05321052350246584</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1837334995.477697</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2447767558.007363</v>
+        <v>2411099192.88129</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1040453817950889</v>
+        <v>0.1395492788433036</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03110626878902664</v>
+        <v>0.04180795478163824</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1223883835.219393</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2405157928.858589</v>
+        <v>3231752938.131205</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1089188228774994</v>
+        <v>0.1063212698086648</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03506102255495866</v>
+        <v>0.03913065220912545</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1202579006.974355</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2232117239.850928</v>
+        <v>2378246063.626585</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1235797153751347</v>
+        <v>0.1335907962483686</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0378756910080173</v>
+        <v>0.03910762178102118</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1116058581.698072</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3512034072.943839</v>
+        <v>4618503792.653879</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1125981204484683</v>
+        <v>0.1346105135298106</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02088159241391127</v>
+        <v>0.02144791866283392</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1756017053.247539</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3271387641.903354</v>
+        <v>2694589534.527314</v>
       </c>
       <c r="F98" t="n">
-        <v>0.097342475031297</v>
+        <v>0.08422582589988349</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02213959170980791</v>
+        <v>0.02198011592562432</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1635693823.585855</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2174263352.689137</v>
+        <v>2432443783.514669</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1413156984890074</v>
+        <v>0.09711945163391947</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03248056339328079</v>
+        <v>0.02211637366207615</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1087131601.755441</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4393886193.520547</v>
+        <v>3534999845.759586</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1257072319032313</v>
+        <v>0.1427741274194656</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02537213153823051</v>
+        <v>0.02066804178376039</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2196943198.28303</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3109581128.725064</v>
+        <v>2459521879.143963</v>
       </c>
       <c r="F101" t="n">
-        <v>0.145356441102993</v>
+        <v>0.1841790270358862</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04500920062176346</v>
+        <v>0.0414229718175531</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1554790667.42045</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1658011517.555507</v>
+        <v>1652421353.499911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07249921874154747</v>
+        <v>0.08124072253727427</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04518294276032484</v>
+        <v>0.04417376128910687</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2297367728.878142</v>
+        <v>2281173244.557507</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1146087365072009</v>
+        <v>0.1682042049961725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04380271450257014</v>
+        <v>0.04526607459755606</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4459577711.372493</v>
+        <v>3785747055.507496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1156900390978753</v>
+        <v>0.1566127493245071</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02522844341435091</v>
+        <v>0.03403049244481852</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3788004382.346953</v>
+        <v>3549217091.720669</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08425828163514475</v>
+        <v>0.1021487103676916</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04360939584227504</v>
+        <v>0.0324104191965413</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2506072601.257629</v>
+        <v>2641875842.325735</v>
       </c>
       <c r="F6" t="n">
-        <v>0.12172157126655</v>
+        <v>0.1267707632455115</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03600103995605759</v>
+        <v>0.03841815022853945</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2379375714.308132</v>
+        <v>2079463082.084676</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09622240206446787</v>
+        <v>0.08947696722067153</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04456357468541746</v>
+        <v>0.03913192685634926</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2817239678.962362</v>
+        <v>2614125685.921513</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2043092869033012</v>
+        <v>0.1717536861441712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02659935069438686</v>
+        <v>0.0268164064973145</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1393149809.10478</v>
+        <v>1919834857.114295</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1748945384486192</v>
+        <v>0.1570510514655896</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03677832271626921</v>
+        <v>0.0239555132618148</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5666305899.918061</v>
+        <v>3961537624.656091</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1920654763468825</v>
+        <v>0.1336828566160966</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03343945108548323</v>
+        <v>0.03607012006042291</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4216708563.460377</v>
+        <v>4005406364.527913</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1267507693741313</v>
+        <v>0.1334718720197552</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04511870918577426</v>
+        <v>0.04913304161965251</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2588982539.818868</v>
+        <v>3162404643.505636</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1231082478034157</v>
+        <v>0.1203476552515742</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03443926026405292</v>
+        <v>0.03404242593949829</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4774683384.225391</v>
+        <v>5289995547.815422</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0976748514204997</v>
+        <v>0.09178232138874289</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03129304036807909</v>
+        <v>0.02509175390689066</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3097390920.457004</v>
+        <v>3677789606.02394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1364276526070209</v>
+        <v>0.153246983672347</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0424623958345458</v>
+        <v>0.02979058248168802</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1423199559.796774</v>
+        <v>1187428761.915564</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08536187033061052</v>
+        <v>0.08455432755258321</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04186904418521045</v>
+        <v>0.03555229907474659</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2715237547.214755</v>
+        <v>2162632450.531945</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08920919148145</v>
+        <v>0.08591551547608343</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03259237018310951</v>
+        <v>0.03845254688487561</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5100358346.337936</v>
+        <v>4494700220.19768</v>
       </c>
       <c r="F17" t="n">
-        <v>0.123390026618469</v>
+        <v>0.1394173790663898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0486886169867577</v>
+        <v>0.03582313082948782</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2797895624.237437</v>
+        <v>3304551892.864307</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1704868662400365</v>
+        <v>0.1168932945783383</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02536070909843756</v>
+        <v>0.02428427657178654</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1179323845.233273</v>
+        <v>960518661.1715691</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1564132516313796</v>
+        <v>0.1339645794240741</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02505750578315219</v>
+        <v>0.02747494803337834</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2011568960.91518</v>
+        <v>1773768784.935428</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1025731354837933</v>
+        <v>0.1114648759226377</v>
       </c>
       <c r="G20" t="n">
-        <v>0.021932309960408</v>
+        <v>0.02307951225973765</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2410083520.311935</v>
+        <v>2097946864.550147</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08743651320283832</v>
+        <v>0.09859036211928159</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04596052731288032</v>
+        <v>0.03885498922152814</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3618758297.998795</v>
+        <v>3811166165.659643</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1035813683247352</v>
+        <v>0.1440445395541222</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04373000556974532</v>
+        <v>0.0431438600417126</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1319506724.755914</v>
+        <v>1114717586.679688</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1419931664468004</v>
+        <v>0.1266307470652163</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04026263728966382</v>
+        <v>0.04736233986063344</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3761703327.689762</v>
+        <v>3920181607.876144</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1033589179232563</v>
+        <v>0.1124919915230651</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03194006738638911</v>
+        <v>0.02526225962505761</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>969476632.1768067</v>
+        <v>1287153234.906996</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1034064888206841</v>
+        <v>0.1194713442412759</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03044717857879734</v>
+        <v>0.02410703038249391</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1072400662.245142</v>
+        <v>1108684600.091516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09797680038463458</v>
+        <v>0.1191635019518658</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03288238512331192</v>
+        <v>0.03473602218552049</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4424533410.253066</v>
+        <v>3150768300.167742</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09919452280695019</v>
+        <v>0.1296754133767318</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02703806996961753</v>
+        <v>0.01890312234625346</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2761937173.27456</v>
+        <v>2658821805.076727</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1035798662196794</v>
+        <v>0.1371310929234164</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03057602978896055</v>
+        <v>0.03532510221872683</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4079277776.823419</v>
+        <v>5241223830.822349</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09134792529444653</v>
+        <v>0.1263808009250552</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04671712417987197</v>
+        <v>0.03663752063396098</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1504898016.538723</v>
+        <v>2147939933.592182</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08837226683901696</v>
+        <v>0.1252291310927906</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03575467384666192</v>
+        <v>0.02714920982092443</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1354342037.086485</v>
+        <v>1358458804.003158</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07105692793378171</v>
+        <v>0.07482926256665064</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03433033725536754</v>
+        <v>0.03397782402432264</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1666261218.214888</v>
+        <v>1524145620.807825</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1137929493571</v>
+        <v>0.1055227554521913</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03416156853385397</v>
+        <v>0.03105943650009557</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2496553021.974865</v>
+        <v>2411193934.406968</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1987685950798435</v>
+        <v>0.1497823755750675</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05091124009632324</v>
+        <v>0.04757432644311645</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1046970927.009222</v>
+        <v>1490385892.174522</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1101522992192387</v>
+        <v>0.09432937534737158</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02522118269978067</v>
+        <v>0.01995154687938031</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>950521706.6362573</v>
+        <v>879170780.5110818</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08326614465959237</v>
+        <v>0.0948537027382276</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02849732460158668</v>
+        <v>0.03669129258898782</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2975644559.027162</v>
+        <v>2894693333.227968</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1157835807680953</v>
+        <v>0.1460435408787915</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02444087993122875</v>
+        <v>0.02474610126963618</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2861364229.116142</v>
+        <v>2699402169.77527</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08183074485989922</v>
+        <v>0.0854296677379206</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02756939081222908</v>
+        <v>0.04005967432800089</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1784893225.210197</v>
+        <v>1398297592.726536</v>
       </c>
       <c r="F38" t="n">
-        <v>0.118888459589161</v>
+        <v>0.1143265322938379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02416721610790441</v>
+        <v>0.03728212004551736</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2077383709.034619</v>
+        <v>1419145459.686939</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1411899382045228</v>
+        <v>0.133254285776994</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02933468832448141</v>
+        <v>0.02811159182087891</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1319175292.477011</v>
+        <v>1113164790.575256</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1103221053836039</v>
+        <v>0.1239307606008693</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03851314805829482</v>
+        <v>0.05344918178939965</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2249973884.428747</v>
+        <v>2010272773.686953</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1469489691575587</v>
+        <v>0.1461330233245096</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03886322109707176</v>
+        <v>0.04497931971479049</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3889008387.664289</v>
+        <v>3118830336.820736</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07744115925499555</v>
+        <v>0.1273278756092799</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03162414288819409</v>
+        <v>0.03509959989052449</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2488444452.321813</v>
+        <v>1892691191.193458</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1899895292678257</v>
+        <v>0.2042576636352097</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02501688216458853</v>
+        <v>0.0222614327283631</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2217384344.648125</v>
+        <v>2194243546.867565</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09819646730892953</v>
+        <v>0.08456861329063524</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03432832311965982</v>
+        <v>0.03636914389825318</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1700179124.882313</v>
+        <v>1814345126.554931</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1695296702084028</v>
+        <v>0.1907302016320868</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03954704905375793</v>
+        <v>0.04867057815708082</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5081560175.978388</v>
+        <v>4994059757.695861</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1552911503468706</v>
+        <v>0.1076096945145485</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04173273510713736</v>
+        <v>0.05522343150425461</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3607530433.311411</v>
+        <v>4142919818.033225</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1741762961343519</v>
+        <v>0.1862937242027426</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05142197150081625</v>
+        <v>0.0497004249043343</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4149676516.980381</v>
+        <v>2946246070.515966</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1045479989143152</v>
+        <v>0.08023690098764565</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03648124596842539</v>
+        <v>0.03731541037323564</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1706916863.785131</v>
+        <v>1574376976.207989</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1449401978397252</v>
+        <v>0.1627665604231069</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02698622602502031</v>
+        <v>0.03511204814144277</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2948180958.931525</v>
+        <v>3316386850.355322</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1182634942284847</v>
+        <v>0.1608228278477427</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03673327461198068</v>
+        <v>0.04989369031753354</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1055265193.582453</v>
+        <v>1143851862.218841</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1257562963297043</v>
+        <v>0.1554684337074216</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05002400912419515</v>
+        <v>0.03427606020200216</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5098399739.805621</v>
+        <v>3313697176.302796</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1157838695205989</v>
+        <v>0.1035654462364024</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06199587814281727</v>
+        <v>0.05007108901894492</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3574769017.629605</v>
+        <v>3376866292.642796</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1936943107307891</v>
+        <v>0.1354730665248423</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02369285192396504</v>
+        <v>0.03021856985228701</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3501985382.808077</v>
+        <v>4961117055.381201</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1174489407763134</v>
+        <v>0.1314592515950198</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04873713157697125</v>
+        <v>0.04235166120873966</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4770948610.053318</v>
+        <v>3079194547.624539</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1426792375934894</v>
+        <v>0.18469332037997</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02762434114926713</v>
+        <v>0.02597619187514519</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1744119458.439116</v>
+        <v>1596540686.87132</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1585198846786053</v>
+        <v>0.1011978918551107</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05256994480867973</v>
+        <v>0.04126859395532607</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4139206779.828952</v>
+        <v>4564354430.361812</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1278762874668844</v>
+        <v>0.1601564978009225</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02614690174340934</v>
+        <v>0.01758391466939386</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1842867185.766235</v>
+        <v>1295454946.447088</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1406409233206314</v>
+        <v>0.1715261322978667</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03678953538718294</v>
+        <v>0.02712309151385688</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3824176169.644</v>
+        <v>4858261313.379796</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1137239693102045</v>
+        <v>0.1300706688135342</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04832925717011159</v>
+        <v>0.04880542546216881</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2710783757.923842</v>
+        <v>2573148455.988745</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1659433555531289</v>
+        <v>0.1904432836173743</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02429837633978253</v>
+        <v>0.02664615754822958</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3105176162.3347</v>
+        <v>2641487923.681895</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1681746460845484</v>
+        <v>0.1583330883241451</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02317753425241151</v>
+        <v>0.02370852265607499</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1543805763.559444</v>
+        <v>2055754791.351432</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1594463897820517</v>
+        <v>0.1840927631437024</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03881225955890745</v>
+        <v>0.04152228511471621</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5493519076.093801</v>
+        <v>4741366578.038607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09537280214623511</v>
+        <v>0.06483452072280978</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03866303742066012</v>
+        <v>0.03701977576931849</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4372474695.750203</v>
+        <v>3794356317.132451</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1377794456419459</v>
+        <v>0.1622296205815222</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03211323528255697</v>
+        <v>0.0341453671177777</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5768186319.824533</v>
+        <v>3826859765.26807</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1463947758645687</v>
+        <v>0.1338637348019242</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0312773218046631</v>
+        <v>0.03005290273845632</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3765146823.842681</v>
+        <v>5106367264.248282</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09928541031126502</v>
+        <v>0.1505743341526332</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03162160971249062</v>
+        <v>0.04910020822711576</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2389839407.224144</v>
+        <v>2299643317.771199</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07718326781439659</v>
+        <v>0.0871908745628827</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04773540073853363</v>
+        <v>0.04409727573113948</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5433268021.703317</v>
+        <v>4005824944.112699</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1267609741284748</v>
+        <v>0.1482938083187112</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05149171850972548</v>
+        <v>0.0464848279107889</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2190167455.306563</v>
+        <v>1630315532.978081</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1339928813098997</v>
+        <v>0.1393032432898192</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04318416145617399</v>
+        <v>0.04271190519536502</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2510529230.052943</v>
+        <v>3285620393.878401</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06788889546874638</v>
+        <v>0.09211826741877413</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04074633373675034</v>
+        <v>0.0324372932569658</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5063430323.450417</v>
+        <v>5575724027.711388</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1298825108258956</v>
+        <v>0.1324549616983159</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03213461893557746</v>
+        <v>0.02775930502234411</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1658144110.955123</v>
+        <v>1478236753.355939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1022541190389653</v>
+        <v>0.10725941272938</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05044706737713474</v>
+        <v>0.0415028683589399</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3201359854.508273</v>
+        <v>3317040600.943172</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0849097408079169</v>
+        <v>0.1004300862247442</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03739489111551078</v>
+        <v>0.04639367490200023</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3002665254.055443</v>
+        <v>2898477546.72097</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1565962881198773</v>
+        <v>0.1342360130333814</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02560336889363557</v>
+        <v>0.03288540336353516</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1922589830.716297</v>
+        <v>1547876988.319253</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1047027083393362</v>
+        <v>0.1031367597327776</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03022414549055533</v>
+        <v>0.03523297281162979</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4642405815.635947</v>
+        <v>4076646803.723751</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08046932098984415</v>
+        <v>0.1044482905028365</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02771941279165041</v>
+        <v>0.02796318457523026</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2187498837.510403</v>
+        <v>1783028871.425578</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1500781939409539</v>
+        <v>0.1157198889626385</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03121571445286413</v>
+        <v>0.02812423258338092</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3874390962.406352</v>
+        <v>4568594586.566212</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1210387739056391</v>
+        <v>0.1181872367505392</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04390889163626337</v>
+        <v>0.03621648712366895</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1214980957.951622</v>
+        <v>1828864672.97918</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1225665259773947</v>
+        <v>0.1500124669553494</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03235160715642915</v>
+        <v>0.03642035030586424</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3513136886.228254</v>
+        <v>4799071274.951195</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07931199680605852</v>
+        <v>0.110397451750636</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03858584352126296</v>
+        <v>0.0291896497410664</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3363658648.254067</v>
+        <v>3594511202.010808</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09438591903634133</v>
+        <v>0.08545247758382726</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02405541855873431</v>
+        <v>0.02940639563489351</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4224956506.541498</v>
+        <v>3646137317.743474</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1798620936511231</v>
+        <v>0.2054320589414108</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02502492425152212</v>
+        <v>0.01780711340505755</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2340014810.291313</v>
+        <v>1568207145.263665</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475733649926752</v>
+        <v>0.1290692461207568</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03392663804257084</v>
+        <v>0.03890691908785875</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1693789259.210188</v>
+        <v>2295211558.326625</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09933458672856826</v>
+        <v>0.1172397859700512</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05194972239522595</v>
+        <v>0.03476046642208967</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2353964673.592599</v>
+        <v>2908923261.871707</v>
       </c>
       <c r="F85" t="n">
-        <v>0.167640854587182</v>
+        <v>0.1221667855060468</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04426117039331157</v>
+        <v>0.04639285169741551</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1695015424.788713</v>
+        <v>2375949502.325342</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1594597525604754</v>
+        <v>0.1535306618835749</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01990822367991594</v>
+        <v>0.02386569170638332</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1272173160.435981</v>
+        <v>1194939441.085835</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1845160911969571</v>
+        <v>0.1665506626812722</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03469696008844637</v>
+        <v>0.03864224283636507</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2888996847.278062</v>
+        <v>2913784912.391103</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1114435978112834</v>
+        <v>0.1312199661175497</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03237206437249215</v>
+        <v>0.03425511192025017</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3256549391.579411</v>
+        <v>2295133187.796701</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1378114703360778</v>
+        <v>0.1387744751530307</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03869149593767936</v>
+        <v>0.04047309201923887</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1582358963.235462</v>
+        <v>1797351224.908374</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1209528355568492</v>
+        <v>0.08695862646966121</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04766809057765685</v>
+        <v>0.05161303678389531</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1631937829.166383</v>
+        <v>1615313222.435797</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1907049867289079</v>
+        <v>0.1796253113547151</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04761283899278201</v>
+        <v>0.03886276286822322</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1809999219.926597</v>
+        <v>2522482154.548993</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06768688025963202</v>
+        <v>0.1070307830972526</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03976631011278021</v>
+        <v>0.03491042387256171</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4705765684.098958</v>
+        <v>3524271689.639108</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1055167851466892</v>
+        <v>0.1165373926700386</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05321052350246584</v>
+        <v>0.04860659857842274</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2411099192.88129</v>
+        <v>2155477096.981398</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1395492788433036</v>
+        <v>0.1508862023947587</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04180795478163824</v>
+        <v>0.03885036420355337</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3231752938.131205</v>
+        <v>2098254127.137589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1063212698086648</v>
+        <v>0.1255174494774339</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03913065220912545</v>
+        <v>0.0442583142607909</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2378246063.626585</v>
+        <v>1967292419.742566</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1335907962483686</v>
+        <v>0.08831847108389602</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03910762178102118</v>
+        <v>0.04588840367066774</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4618503792.653879</v>
+        <v>4038053146.755429</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1346105135298106</v>
+        <v>0.1246897810358179</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02144791866283392</v>
+        <v>0.02281567511051054</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2694589534.527314</v>
+        <v>2494312162.720251</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08422582589988349</v>
+        <v>0.09152115448301569</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02198011592562432</v>
+        <v>0.0229321639298631</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2432443783.514669</v>
+        <v>2307497147.576184</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09711945163391947</v>
+        <v>0.1153948193275216</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02211637366207615</v>
+        <v>0.02575179785190576</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3534999845.759586</v>
+        <v>4373780164.100134</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1427741274194656</v>
+        <v>0.1714110828547179</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02066804178376039</v>
+        <v>0.02450758435319653</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2459521879.143963</v>
+        <v>2857832779.523606</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1841790270358862</v>
+        <v>0.1475769727171978</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0414229718175531</v>
+        <v>0.04443506376505731</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_8.xlsx
+++ b/output/fit_clients/fit_round_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1652421353.499911</v>
+        <v>1884556450.318861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08124072253727427</v>
+        <v>0.1065111521309059</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04417376128910687</v>
+        <v>0.04398075998025072</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2281173244.557507</v>
+        <v>1613050546.059222</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1682042049961725</v>
+        <v>0.1145277621411096</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04526607459755606</v>
+        <v>0.0362398777376485</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3785747055.507496</v>
+        <v>4577483466.353087</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1566127493245071</v>
+        <v>0.1240281063179629</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03403049244481852</v>
+        <v>0.03375673013977611</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>216.0580263366455</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3549217091.720669</v>
+        <v>2654989237.477337</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1021487103676916</v>
+        <v>0.1031152142143978</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0324104191965413</v>
+        <v>0.04828196761822954</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>98.20595645614937</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2641875842.325735</v>
+        <v>2477038435.235363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1267707632455115</v>
+        <v>0.09607213635553824</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03841815022853945</v>
+        <v>0.03948680843072384</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2079463082.084676</v>
+        <v>2122554989.441782</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08947696722067153</v>
+        <v>0.06652802869093423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03913192685634926</v>
+        <v>0.03249280403364381</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2614125685.921513</v>
+        <v>2829586470.551556</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1717536861441712</v>
+        <v>0.1921257846616668</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0268164064973145</v>
+        <v>0.02592593990220822</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>100.5396649023229</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1919834857.114295</v>
+        <v>2171389084.000271</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1570510514655896</v>
+        <v>0.126702028888112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0239555132618148</v>
+        <v>0.02902849296021</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +787,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3961537624.656091</v>
+        <v>4306101271.115839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1336828566160966</v>
+        <v>0.1989799047826251</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03607012006042291</v>
+        <v>0.03468440638773208</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1415068117609</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4005406364.527913</v>
+        <v>2762977910.45137</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1334718720197552</v>
+        <v>0.1834472758630014</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04913304161965251</v>
+        <v>0.04585211332170088</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3162404643.505636</v>
+        <v>2428450335.937995</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1203476552515742</v>
+        <v>0.1544512806390632</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03404242593949829</v>
+        <v>0.04851934230560558</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +894,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5289995547.815422</v>
+        <v>3308294044.680855</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09178232138874289</v>
+        <v>0.07452660259200476</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02509175390689066</v>
+        <v>0.03029329094588874</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="n">
+        <v>144.1092143613384</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +931,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3677789606.02394</v>
+        <v>2838979402.532229</v>
       </c>
       <c r="F14" t="n">
-        <v>0.153246983672347</v>
+        <v>0.1414709759016826</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02979058248168802</v>
+        <v>0.03730880936587864</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1187428761.915564</v>
+        <v>1528048249.475799</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08455432755258321</v>
+        <v>0.08445045821871167</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03555229907474659</v>
+        <v>0.04607493837173551</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2162632450.531945</v>
+        <v>1841846397.888086</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08591551547608343</v>
+        <v>0.102061336832102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03845254688487561</v>
+        <v>0.04416103397239788</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1036,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4494700220.19768</v>
+        <v>4048367227.893395</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1394173790663898</v>
+        <v>0.1581609181427549</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03582313082948782</v>
+        <v>0.04880692791493992</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3304551892.864307</v>
+        <v>3372601860.52995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1168932945783383</v>
+        <v>0.160418599660501</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02428427657178654</v>
+        <v>0.02479235147862746</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>148.8445648209342</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>960518661.1715691</v>
+        <v>1059804674.447219</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1339645794240741</v>
+        <v>0.1259062997635411</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02747494803337834</v>
+        <v>0.02532262036285418</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1773768784.935428</v>
+        <v>1711438162.432644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1114648759226377</v>
+        <v>0.1478819769589957</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02307951225973765</v>
+        <v>0.0199119981816056</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2097946864.550147</v>
+        <v>2654089883.926662</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09859036211928159</v>
+        <v>0.08345079112688396</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03885498922152814</v>
+        <v>0.03640708690166938</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3811166165.659643</v>
+        <v>3527292995.375654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1440445395541222</v>
+        <v>0.1363852432244993</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0431438600417126</v>
+        <v>0.04461038324577869</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114717586.679688</v>
+        <v>992230220.3656832</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1266307470652163</v>
+        <v>0.1256716911758923</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04736233986063344</v>
+        <v>0.04745290584362161</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3920181607.876144</v>
+        <v>2859003265.025785</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1124919915230651</v>
+        <v>0.1351730014221809</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02526225962505761</v>
+        <v>0.03064386351867132</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1287153234.906996</v>
+        <v>966155447.9828913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1194713442412759</v>
+        <v>0.1157333405828923</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02410703038249391</v>
+        <v>0.03045640945818093</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1108684600.091516</v>
+        <v>1018829938.770356</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1191635019518658</v>
+        <v>0.08516943798445376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03473602218552049</v>
+        <v>0.03201158190654707</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3150768300.167742</v>
+        <v>3060781239.996831</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1296754133767318</v>
+        <v>0.1088976683906527</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01890312234625346</v>
+        <v>0.01751091358143526</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2658821805.076727</v>
+        <v>3182033438.210295</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1371310929234164</v>
+        <v>0.1354480791717699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03532510221872683</v>
+        <v>0.03522563068427553</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5241223830.822349</v>
+        <v>4014622514.50437</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1263808009250552</v>
+        <v>0.1315824743943803</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03663752063396098</v>
+        <v>0.03258437607823744</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0290370703224</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2147939933.592182</v>
+        <v>2026805884.885675</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1252291310927906</v>
+        <v>0.1372703375072731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02714920982092443</v>
+        <v>0.03462120741780516</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1358458804.003158</v>
+        <v>974943939.7306752</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07482926256665064</v>
+        <v>0.07761349440815497</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03397782402432264</v>
+        <v>0.04068038858969775</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1524145620.807825</v>
+        <v>1156805599.070948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1055227554521913</v>
+        <v>0.08053409739311142</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03105943650009557</v>
+        <v>0.03033100828349486</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2411193934.406968</v>
+        <v>2584607095.356493</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1497823755750675</v>
+        <v>0.1598847274853853</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04757432644311645</v>
+        <v>0.04155877897540213</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1490385892.174522</v>
+        <v>1455554710.893828</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09432937534737158</v>
+        <v>0.09006133484927022</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01995154687938031</v>
+        <v>0.02484008560757608</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>879170780.5110818</v>
+        <v>1248367217.709274</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0948537027382276</v>
+        <v>0.0935169171423183</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03669129258898782</v>
+        <v>0.02827034612557889</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2894693333.227968</v>
+        <v>2524517362.145814</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1460435408787915</v>
+        <v>0.1552318966293814</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02474610126963618</v>
+        <v>0.02653399203196301</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2699402169.77527</v>
+        <v>2081611608.811437</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0854296677379206</v>
+        <v>0.07354730179246023</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04005967432800089</v>
+        <v>0.02717146131480411</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1398297592.726536</v>
+        <v>1423122836.761111</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1143265322938379</v>
+        <v>0.1003662876100687</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03728212004551736</v>
+        <v>0.02656669690521384</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1419145459.686939</v>
+        <v>2053941969.739836</v>
       </c>
       <c r="F39" t="n">
-        <v>0.133254285776994</v>
+        <v>0.1635641946309202</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02811159182087891</v>
+        <v>0.02707766182648079</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1113164790.575256</v>
+        <v>1137524026.365345</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1239307606008693</v>
+        <v>0.1016940639421987</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05344918178939965</v>
+        <v>0.03707597453785853</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2010272773.686953</v>
+        <v>2581661558.483924</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1461330233245096</v>
+        <v>0.1056196970324637</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04497931971479049</v>
+        <v>0.04451651411501874</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1909,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3118830336.820736</v>
+        <v>3844200265.764836</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1273278756092799</v>
+        <v>0.1044899502326528</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03509959989052449</v>
+        <v>0.03521766993945619</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>192.8636058473402</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1892691191.193458</v>
+        <v>1932632410.1387</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2042576636352097</v>
+        <v>0.1989946845537676</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0222614327283631</v>
+        <v>0.01802017248676136</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2194243546.867565</v>
+        <v>1574632077.027602</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08456861329063524</v>
+        <v>0.07225069670412708</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03636914389825318</v>
+        <v>0.03087359503506566</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1814345126.554931</v>
+        <v>2041042318.533514</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1907302016320868</v>
+        <v>0.1862547254309976</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04867057815708082</v>
+        <v>0.04134035278106863</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4994059757.695861</v>
+        <v>4093924966.355286</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1076096945145485</v>
+        <v>0.1317934573317225</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05522343150425461</v>
+        <v>0.04907209627731655</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4142919818.033225</v>
+        <v>4613783511.913294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1862937242027426</v>
+        <v>0.1780408605481676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0497004249043343</v>
+        <v>0.05745681044733655</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.7569324548962</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2129,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2946246070.515966</v>
+        <v>3405970511.822973</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08023690098764565</v>
+        <v>0.10650449752555</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03731541037323564</v>
+        <v>0.02684234255120157</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1574376976.207989</v>
+        <v>1208900133.319221</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1627665604231069</v>
+        <v>0.189197424198264</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03511204814144277</v>
+        <v>0.0301650905961999</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2199,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3316386850.355322</v>
+        <v>4063403063.606184</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1608228278477427</v>
+        <v>0.1359788097322515</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04989369031753354</v>
+        <v>0.03473342490819236</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1143851862.218841</v>
+        <v>1135424109.971228</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1554684337074216</v>
+        <v>0.1886748466428647</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03427606020200216</v>
+        <v>0.0453433598550862</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3313697176.302796</v>
+        <v>4119888818.349529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1035654462364024</v>
+        <v>0.1012989527469802</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05007108901894492</v>
+        <v>0.05688423711155566</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.6634640232074</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3376866292.642796</v>
+        <v>3102920768.539361</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1354730665248423</v>
+        <v>0.1346254190007012</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03021856985228701</v>
+        <v>0.027615008298713</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4961117055.381201</v>
+        <v>3406770699.215891</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1314592515950198</v>
+        <v>0.1305435332595976</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04235166120873966</v>
+        <v>0.03336170763907014</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>8</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3079194547.624539</v>
+        <v>4565918537.100753</v>
       </c>
       <c r="F55" t="n">
-        <v>0.18469332037997</v>
+        <v>0.194262397464606</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02597619187514519</v>
+        <v>0.02206686507400069</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>8</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1596540686.87132</v>
+        <v>1594280334.51825</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1011978918551107</v>
+        <v>0.1313563574855032</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04126859395532607</v>
+        <v>0.05651835447167763</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4564354430.361812</v>
+        <v>2780031537.871664</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1601564978009225</v>
+        <v>0.1348722543840155</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01758391466939386</v>
+        <v>0.01890447013193223</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>7</v>
+      </c>
+      <c r="K57" t="n">
+        <v>96.9318889213317</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1295454946.447088</v>
+        <v>1534899072.615345</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1715261322978667</v>
+        <v>0.193101924590603</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02712309151385688</v>
+        <v>0.03824026613129961</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4858261313.379796</v>
+        <v>5362614220.168195</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1300706688135342</v>
+        <v>0.1234060565043629</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04880542546216881</v>
+        <v>0.03079680060298315</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>187.1392703012187</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2573148455.988745</v>
+        <v>2706184672.719756</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1904432836173743</v>
+        <v>0.1449189800916083</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02664615754822958</v>
+        <v>0.02805084671452582</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2641487923.681895</v>
+        <v>2297710447.6561</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1583330883241451</v>
+        <v>0.1791669930798146</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02370852265607499</v>
+        <v>0.02859979515167793</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2055754791.351432</v>
+        <v>1942853892.955209</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1840927631437024</v>
+        <v>0.1235080043326296</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04152228511471621</v>
+        <v>0.04871523725748073</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2660,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4741366578.038607</v>
+        <v>3424474955.627523</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06483452072280978</v>
+        <v>0.07756922052997549</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03701977576931849</v>
+        <v>0.03454442075693219</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>7</v>
+      </c>
+      <c r="K63" t="n">
+        <v>142.9505451691693</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3794356317.132451</v>
+        <v>4509803907.843441</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1622296205815222</v>
+        <v>0.1216642893503106</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0341453671177777</v>
+        <v>0.02937092742382071</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>7</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.2796074113424</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3826859765.26807</v>
+        <v>5309513368.330337</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1338637348019242</v>
+        <v>0.1530316562321088</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03005290273845632</v>
+        <v>0.02948970186535564</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5106367264.248282</v>
+        <v>3526723783.190091</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1505743341526332</v>
+        <v>0.15134753641479</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04910020822711576</v>
+        <v>0.04579061802718942</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" t="n">
+        <v>7</v>
+      </c>
+      <c r="K66" t="n">
+        <v>152.6633341896392</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2299643317.771199</v>
+        <v>2380950796.80478</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0871908745628827</v>
+        <v>0.06415925314327545</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04409727573113948</v>
+        <v>0.04130801917068407</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4005824944.112699</v>
+        <v>5031029199.622396</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1482938083187112</v>
+        <v>0.1242105043013266</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0464848279107889</v>
+        <v>0.03508287487014566</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>7</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.1993266525289</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1630315532.978081</v>
+        <v>1817091143.20386</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1393032432898192</v>
+        <v>0.1579550298897768</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04271190519536502</v>
+        <v>0.0510766225974854</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3285620393.878401</v>
+        <v>2686690909.466375</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09211826741877413</v>
+        <v>0.07629762923237655</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0324372932569658</v>
+        <v>0.04265595078077182</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2948,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5575724027.711388</v>
+        <v>4895079622.762456</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1324549616983159</v>
+        <v>0.1450579967613597</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02775930502234411</v>
+        <v>0.03300112738498973</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" t="n">
+        <v>8</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.6492724560754</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1478236753.355939</v>
+        <v>1545443254.447497</v>
       </c>
       <c r="F72" t="n">
-        <v>0.10725941272938</v>
+        <v>0.09802152037773718</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0415028683589399</v>
+        <v>0.03254855225817569</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3317040600.943172</v>
+        <v>3313743863.361168</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1004300862247442</v>
+        <v>0.09768681929415479</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04639367490200023</v>
+        <v>0.052343376379387</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2898477546.72097</v>
+        <v>3586411919.772764</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1342360130333814</v>
+        <v>0.1549295308495072</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03288540336353516</v>
+        <v>0.02270304620162524</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1547876988.319253</v>
+        <v>2178723017.497666</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1031367597327776</v>
+        <v>0.1532250354721797</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03523297281162979</v>
+        <v>0.03511367485496365</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4076646803.723751</v>
+        <v>3318416968.111957</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1044482905028365</v>
+        <v>0.1248150757721101</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02796318457523026</v>
+        <v>0.02264374955776206</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>6</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1783028871.425578</v>
+        <v>1414706476.377464</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1157198889626385</v>
+        <v>0.1370133782322851</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02812423258338092</v>
+        <v>0.03025972589672005</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4568594586.566212</v>
+        <v>3702327807.497217</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1181872367505392</v>
+        <v>0.1100237101430901</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03621648712366895</v>
+        <v>0.04944327805447326</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>181.9873426778981</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1828864672.97918</v>
+        <v>1493854795.807143</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1500124669553494</v>
+        <v>0.1578297376295956</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03642035030586424</v>
+        <v>0.03457610737568764</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4799071274.951195</v>
+        <v>4886002731.039967</v>
       </c>
       <c r="F80" t="n">
-        <v>0.110397451750636</v>
+        <v>0.07360553668595768</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0291896497410664</v>
+        <v>0.03521359534307281</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3594511202.010808</v>
+        <v>5055853707.494246</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08545247758382726</v>
+        <v>0.1077707334820103</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02940639563489351</v>
+        <v>0.02490156448213598</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3646137317.743474</v>
+        <v>4508741952.802101</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2054320589414108</v>
+        <v>0.2038727469789212</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01780711340505755</v>
+        <v>0.02666008755642223</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>7</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.4371795203797</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1568207145.263665</v>
+        <v>2038847035.01685</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1290692461207568</v>
+        <v>0.09866090174076199</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03890691908785875</v>
+        <v>0.04375755257286101</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2295211558.326625</v>
+        <v>2106916201.789595</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1172397859700512</v>
+        <v>0.1016632810123751</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03476046642208967</v>
+        <v>0.04807854683478361</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2908923261.871707</v>
+        <v>3376539112.225039</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1221667855060468</v>
+        <v>0.1289993961052008</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04639285169741551</v>
+        <v>0.03835376791166949</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2375949502.325342</v>
+        <v>2151104333.832461</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1535306618835749</v>
+        <v>0.1151004975034127</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02386569170638332</v>
+        <v>0.02201043826176366</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1194939441.085835</v>
+        <v>1130997406.659415</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1665506626812722</v>
+        <v>0.1459933370838916</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03864224283636507</v>
+        <v>0.0441694878207492</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2913784912.391103</v>
+        <v>2770391306.977536</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1312199661175497</v>
+        <v>0.1610794020968978</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03425511192025017</v>
+        <v>0.02685232000054187</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2295133187.796701</v>
+        <v>3390448965.430655</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1387744751530307</v>
+        <v>0.1535446134320609</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04047309201923887</v>
+        <v>0.02823820573524645</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>8</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1797351224.908374</v>
+        <v>1924739429.62076</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08695862646966121</v>
+        <v>0.1127122389720812</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05161303678389531</v>
+        <v>0.04427701664787185</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1615313222.435797</v>
+        <v>2018986903.369082</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1796253113547151</v>
+        <v>0.1682101408432518</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03886276286822322</v>
+        <v>0.04879973802362124</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2522482154.548993</v>
+        <v>2933151036.119462</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1070307830972526</v>
+        <v>0.07046927085396895</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03491042387256171</v>
+        <v>0.03003687175515576</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3524271689.639108</v>
+        <v>3072342561.725429</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1165373926700386</v>
+        <v>0.1013392072198757</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04860659857842274</v>
+        <v>0.04862013316966027</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2155477096.981398</v>
+        <v>1680200605.223882</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1508862023947587</v>
+        <v>0.1634888352311087</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03885036420355337</v>
+        <v>0.02690109132801372</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2098254127.137589</v>
+        <v>2670115937.659731</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1255174494774339</v>
+        <v>0.08841280235405993</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0442583142607909</v>
+        <v>0.0432447168167889</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1967292419.742566</v>
+        <v>2126615595.525972</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08831847108389602</v>
+        <v>0.08591268184882937</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04588840367066774</v>
+        <v>0.04503099257302686</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4038053146.755429</v>
+        <v>3385340671.234827</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1246897810358179</v>
+        <v>0.1452829858333472</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02281567511051054</v>
+        <v>0.02498215681363539</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>8</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2494312162.720251</v>
+        <v>3353643253.724494</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09152115448301569</v>
+        <v>0.1044887869386913</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0229321639298631</v>
+        <v>0.01997796670459867</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2307497147.576184</v>
+        <v>2609721768.574371</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1153948193275216</v>
+        <v>0.08968063900500148</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02575179785190576</v>
+        <v>0.03335035849231256</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4373780164.100134</v>
+        <v>4631139412.989079</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1714110828547179</v>
+        <v>0.1500756764870546</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02450758435319653</v>
+        <v>0.02176798878396532</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7</v>
+      </c>
+      <c r="K100" t="n">
+        <v>200.0471454591439</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2857832779.523606</v>
+        <v>2576848475.984792</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1475769727171978</v>
+        <v>0.2164543906852371</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04443506376505731</v>
+        <v>0.05511037934864155</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
